--- a/Arbeitsverlauf/Dokumentation Arbeitsverlauf Anil Yener.xlsx
+++ b/Arbeitsverlauf/Dokumentation Arbeitsverlauf Anil Yener.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CE15B6-F409-4519-A48B-A7BDB88E54E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB15A8C-A47F-47B1-8151-8902370478EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mi, 26.02.2020" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="48">
   <si>
     <t>1.</t>
   </si>
@@ -147,6 +147,30 @@
   </si>
   <si>
     <t>UseCase Diagramm fertiggestellt</t>
+  </si>
+  <si>
+    <t>UML Deployment Diagramm</t>
+  </si>
+  <si>
+    <t>UML Deployment Diagramm fertig</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Dokumentation fertig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selbsteinschätzung der Tasks </t>
+  </si>
+  <si>
+    <t>Qualititäsanforderungen</t>
+  </si>
+  <si>
+    <t>Zugriff auf XAMPP</t>
+  </si>
+  <si>
+    <t>Festlegung der Qualititätsanforderungen</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1189,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1310,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB85ED12-BC57-40FD-AE1D-C86E599A4F33}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1363,25 +1387,33 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C5" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C6" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="C7" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C8" s="4">
         <v>11</v>
       </c>
@@ -1394,6 +1426,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>3</v>
@@ -1435,6 +1472,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1442,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9007977A-B368-4E16-8801-2E9DA437995B}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1495,28 +1533,32 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C5" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C6" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C7" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
-      <c r="C8" s="4">
-        <v>12</v>
-      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -1526,6 +1568,16 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>3</v>
@@ -1567,5 +1619,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>